--- a/biology/Botanique/Bryopsis/Bryopsis.xlsx
+++ b/biology/Botanique/Bryopsis/Bryopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bryopsis est un genre d'algues vertes de la famille des Bryopsidaceae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mot "bryopsis", tiré du grec ancien, fait allusion à la ressemblance de cette algue avec une mousse[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mot "bryopsis", tiré du grec ancien, fait allusion à la ressemblance de cette algue avec une mousse.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description morphologique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces algues se présentent sous forme d'un ensemble de filaments courts, fins, ramifiés, présentant une ressemblance avec des tiges feuillées de mousses. Les filaments ne possèdent pas de paroi transversale entre deux cellules voisines (ce qui est visible à la loupe) : leur structure est dite siphonée. Chaque filament présente de courtes ramifications latérales, dont la disposition est utilisée pour déterminer les différentes espèces du genre.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS      (30 avril 2013)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (30 avril 2013) :
 Bryopsis balbisiana
 Bryopsis corticulans Setch., 1899
 Bryopsis harveyana J.Agardh
@@ -585,7 +603,7 @@
 Bryopsis pennatula J.Agardh
 Bryopsis plumosa (Hudson) C.Agardh
 Bryopsis ramulosa Mont.
-Selon World Register of Marine Species                               (30 avril 2013)[3] :
+Selon World Register of Marine Species                               (30 avril 2013) :
 Bryopsis africana Areschoug, 1851
 Bryopsis aishae Nizamuddin, 1995
 Bryopsis australis Sonder, 1845
